--- a/DVV/LAB6/6.xlsx
+++ b/DVV/LAB6/6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip\Desktop\PATAK_zimni\DVV\LAB6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101DEC85-7AE0-4846-AA8A-4DD10AD39CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF39908-5825-4317-AB11-0657D777FCD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15270" yWindow="2655" windowWidth="16110" windowHeight="25515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7395" yWindow="8835" windowWidth="26370" windowHeight="19710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -1766,11 +1766,23 @@
                 <c:pt idx="2">
                   <c:v>28.1</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>14.3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3.5</c:v>
@@ -2249,16 +2261,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425825</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2553,8 +2565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="A30:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3035,6 +3047,9 @@
       <c r="B34">
         <v>13.5</v>
       </c>
+      <c r="C34">
+        <v>20</v>
+      </c>
       <c r="D34">
         <v>24.7</v>
       </c>
@@ -3066,6 +3081,9 @@
       <c r="B36">
         <v>10.199999999999999</v>
       </c>
+      <c r="C36">
+        <v>14.1</v>
+      </c>
       <c r="D36">
         <v>19.2</v>
       </c>
@@ -3080,6 +3098,9 @@
       <c r="B37">
         <v>11</v>
       </c>
+      <c r="C37">
+        <v>15</v>
+      </c>
       <c r="D37">
         <v>17.3</v>
       </c>
@@ -3110,6 +3131,9 @@
       </c>
       <c r="B39">
         <v>5.5</v>
+      </c>
+      <c r="C39">
+        <v>7</v>
       </c>
       <c r="D39">
         <v>9.8000000000000007</v>
